--- a/for_report/evaluation_report.xlsx
+++ b/for_report/evaluation_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_04\for_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22DECB4-3A88-42D6-8BB8-9073FA4F0D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E8A7-092B-4D8B-9506-3BA17EE56BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Batch_size</t>
   </si>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>setCustomParameters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -517,6 +521,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +634,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,40 +682,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,23 +1448,23 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1607,12 +1654,12 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1626,278 +1673,278 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
     </row>
     <row r="17" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1916,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620DC785-CE36-43FF-813F-04B0B6ECDB52}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1942,205 +1989,213 @@
     <col min="17" max="17" width="19.625" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.125" style="17" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="25.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="17"/>
+    <col min="21" max="21" width="25.875" style="17" customWidth="1"/>
+    <col min="22" max="22" width="17.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="W2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="X2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="Y2" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -2149,25 +2204,26 @@
       <c r="G6" s="18"/>
       <c r="H6" s="20"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="19"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W6" s="19"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -2176,327 +2232,339 @@
       <c r="G7" s="18"/>
       <c r="H7" s="20"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="19"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="U1:Y1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:X1"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/for_report/evaluation_report.xlsx
+++ b/for_report/evaluation_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_04\for_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E8A7-092B-4D8B-9506-3BA17EE56BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55F6A65-A793-4E04-A489-4F09FFF511C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,6 +682,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,15 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,7 +1423,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:R19"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1999,40 +1999,40 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
